--- a/va_facility_data_2025-02-20/Loch Raven VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Loch%20Raven%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Loch Raven VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Loch%20Raven%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R249c220961204ea9b1fa990214df2505"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R93e74182148342449852b58c89e4d353"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rab576d62a9784712b35042e2ee320889"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Ra6fb5b8f8971463889b8276c9e3356e6"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R20f831a28c5f4106966727779921ec09"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7e19839ee690454da93479b962f01407"/>
   </x:sheets>
 </x:workbook>
 </file>
